--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проверьте правильность заполнения данной колонки</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без торгового знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарнрого знака"</t>
   </si>
   <si>
     <t xml:space="preserve">Укажите единицу измерения объема (справочник)</t>
@@ -3150,10 +3150,10 @@
   <dimension ref="A1:P1008"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1718" activeCellId="0" sqref="H1718"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18500,7 +18500,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -21562,7 +21562,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="643">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проверьте правильность заполнения данной колонки</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарнрого знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарного знака"</t>
   </si>
   <si>
     <t xml:space="preserve">Укажите единицу измерения объема (справочник)</t>
@@ -189,1331 +189,1267 @@
     <t xml:space="preserve">АЛЮМИНИЙ</t>
   </si>
   <si>
+    <t xml:space="preserve">АБХАЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декларация соответствия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование атрибута</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение атрибута</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕТ В СПРАВОЧНИКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЦЕТАТ ЦЕЛЛЮЛОЗЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДУШИСТАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ КЛАССИФИЦИРОВАНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ УКАЗАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИОПЛАСТИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАВАНДОВАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМПУЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРЕЗЕНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОДЕКОЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заявленный объем(тип)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЭРОЗОЛЬНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАРФЮМЕРНАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАЛЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУМАГА - ДРУГОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПРЕЙ ДЛЯ ТЕЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛБАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУМАГА ВИСКОЗНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУАЛЕТНАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛЖИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА НЕМЕТАЛЛИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУМАГА ГОФРИРОВАННАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМПЛЕКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРАБАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВИНИЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЛИСТЕРНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГИЛЬЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЛОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВСПЕНЕННЫЙ ПОЛИСТИРОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН ДВУХСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНДОРРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЧОНОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН ПЯТИСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТАРКТИДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУТЫЛКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН СЕМИСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЭГ-ИН-БОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН ТРЕХСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРГЕНТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕДРО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖУТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРМЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОРШОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКОРОБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА МЯГКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АФГАНИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ КОНСЕРВИРОВАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДВОЙНОЙ БЛИСТЕР/CLAMSHELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА ТВЁРДАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАГАМЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ НАПИТКОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАДКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА (ДВП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНГЛАДЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАНИСТРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА СРЕДНЕЙ ПЛОТНОСТИ (МДФ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРБАДОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА СТЕКЛЯННАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРТОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСНО-СТРУЖЕЧНАЯ ПЛИТА (ДСтП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАХРЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАТУШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕЛЕЗО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛИЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИГ-БЭГ (МЯГКИЙ КОНТЕЙНЕР)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАМША</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЬГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕЙС/ЧЕХОЛ/ФУТЛЯР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРБОНАТ КАЛЬЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕНИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЛЕТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕРМУДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНВЕРТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРТОН ЛАМИНИРОВАННЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛГАРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕЙНЕР ДЛЯ ПРОДУКТОВ ПИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕРАМИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕЙНЕР МЕДИЦИНСКИЙ МЯГКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЖА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАКУУМНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТУРНАЯ БЕЗЪЯЧЕЙКОВАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМБИНИРОВАННЫЙ МАТЕРИАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОТСВАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРЗИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАТУНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРАЗИЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРОБКА С ПОДДОНОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЁН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРОБКА/БОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИНЕЙНЫЙ ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LLDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ГИБКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕТАЛЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОЙПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ЖЁСТКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕШКОВИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУРКИНА-ФАСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВШИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНЕРАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУРУНДИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОТОК/ПОДНОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МНОГОСЛОЙНЫЙ ПОДЕЛОЧНЫЙ КАРТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАТУРАЛЬНЫЙ КАУЧУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАНУАТУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЛЬТИПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕЙЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБВЯЗОЧНОЕ СРЕДСТВО/ОБВЯЗКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЛОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЁРНУТО В ПЛЁНКУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРИЕНТИРОВАННО-СТРУЖЕЧНАЯ ПЛИТА (ОСП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕНГРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЁРТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕНОМАТЕРИАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕНЕСУЭЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОДНОРАЗОВАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕНЬКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВНЕШНИЕ МАЛЫЕ ОСТРОВА (США)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ БЕЗ ФОРМЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРГАМЕНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОСТОЧНЫЙ ТИМОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЛБАСНАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ ПРЯМОУГОЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛАСТМАССА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЬЕТНАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ С ДОННОЙ СКЛАДКОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ ВЫСОКОБАРЬЕРНЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАБОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕЙНЕР (ПОТРЕБИТЕЛЬСКИЙ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ ТРЕУГОЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ СРЕДНЕБАРЬЕРНЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАИТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИАКРИЛОНИТРИЛ (PAN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИАМИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА ВОЗВРАТНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИВИНИЛИДЕНХЛОРИД (PVDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВАДЕЛУПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА НЕВОЗВРАТНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИВИНИЛОВЫЙ СПИРТ (PVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВАТЕМАЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОБИРКА МЕДИЦИНСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИВИНИЛХЛОРИД (PVC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВИНЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУКАВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИГИДРОКСИАЛКАНОАТ (PHA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВИНЕЯ-БИСАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЯЗКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИКАПРОЛАКТОН (PCL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕРМАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИКАРБОНАТ (PC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГИБРАЛТАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАКАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЛАКТИД (PLA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОНДУРАС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТРЕТЧ-ПЛЁНКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИМЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОНКОНГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОТОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУМКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИОЛЕФИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕНАДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕЛЕЖКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕНЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРМОУСАДОЧНАЯ/УСАДОЧНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИСТИРОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОРТНИЦА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИУРЕТАН (PU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРУЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НА ВЕШАЛКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН (PE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛАКОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН ВЫСОКОЙ ПЛОТНОСТИ (HDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЕРНУТО В ПЛЕНКУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛЯГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА КОНГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЕРТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИЛИНДР/ТУБУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН СРЕДНЕЙ ПЛОТНОСТИ (MDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖИБУТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШОУ-БОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕННАФТАЛАН (PEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОМИНИКАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШПРИЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕНТЕРЕФТАЛАТ (ПЭТ/ПЭТФ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОМИНИКАНСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯЩИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОВОЛОКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕГИПЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕЗИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ С БОКОВЫМИ СКЛАДКАМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВИНЕЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАПАДНАЯ САХАРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗИМБАБВЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАЛЬ НЕРЖАВЕЮЩАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗРАИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТЕКЛО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОВТОРНО ЗАКРЫВАЕМАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТЕКЛО ЦВЕТНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНДОНЕЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЛЬК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИОРДАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРМОПЛАСТИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРМОПЛАСТИЧНЫЙ КРАХМАЛ (TPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАНЕРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАРФОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСПАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САШЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОЛЬГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИТАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОРМОВАННОЕ БУМАЖНОЕ ВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЙЕМЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХЛОПОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАБО-ВЕРДЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦЕЛЛОФАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЗАХСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАКАНЧИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧУГУН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЙМАНОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭПОКСИДНАЯ СМОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМБОДЖА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭТИЛЕНВИНИЛАЦЕТАТ (EVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМЕРУН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАРА С ОКОШКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭТИЛЕНВИНИЛОВЫЙ СПИРТ (EVOH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАНАДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ ПРИМЕНИМО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАТАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕТРА ПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕТРА ФИНО АСЕПТИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРГИЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРИБАТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРАНСПОРТНЫЙ ПАКЕТ</t>
+  </si>
+  <si>
     <t xml:space="preserve">КИТАЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование атрибута</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значение атрибута</t>
-  </si>
-  <si>
-    <t xml:space="preserve">л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТ В СПРАВОЧНИКЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЦЕТАТ ЦЕЛЛЮЛОЗЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДУШИСТАЯ ВОДА</t>
+    <t xml:space="preserve">КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУБУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЛУМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПАКОВКА ИЗ УСАДОЧНОЙ ПЛЕНКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОСТА-РИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛОУПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФУТЛЯР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВЕЙТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАТВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЕСОТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯЧЕИСТАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИВАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАВРИКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАВРИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАДАГАСКАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЙОТТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКАО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛАВИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЬДИВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЬТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРОККО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРТИНИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕКСИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОНЕЗИЯ, ОБЪЕДИНЕННЫЕ ГОСУДАРСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЗАМБИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЛДАВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНАКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНГОЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА ТВЕРДАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНТСЕРРАТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЬЯНМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАМИБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАУРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕПАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИГЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИГЕРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСКУССТВЕННАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИКАРАГУА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИУЭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОРВЕГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОМАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ БУВЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ НОРФОЛК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ РОЖДЕСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ СВЯТОЙ ЕЛЕНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВА КУКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАТУРАЛЬНАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЛАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЛЕСТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАНАМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАПУА-НОВАЯ ГВИНЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАРАГВАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛЬША</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОРТУГАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУЭРТО-РИКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
     <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">НЕ КЛАССИФИЦИРОВАНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ УКАЗАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИОПЛАСТИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАВАНДОВАЯ ВОДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЬЕТНАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМПУЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРЕЗЕНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОДЕКОЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИТАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заявленный объем(тип)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЭРОЗОЛЬНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАРФЮМЕРНАЯ ВОДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАЛЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУМАГА - ДРУГОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПРЕЙ ДЛЯ ТЕЛА</t>
+    <t xml:space="preserve">РУАНДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУМЫНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛЬВАДОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САН-МАРИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВАЗИЛЕНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-МАРТЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНЕГАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНГАПУР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОВАКИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОВЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОМАЛИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУДАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУРИНАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЬЕРРА-ЛЕОНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАДЖИКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОКЕЛАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОНГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРИНИДАД И ТОБАГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУВАЛУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУНИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УГАНДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗБЕКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УКРАИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УОЛЛИС И ФУТУНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УРУГВАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАРЕРСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИДЖИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИЛИППИНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИНЛЯНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОЛКЛЕНДСКИЕ ОСТРОВА (МАЛЬВИНСКИЕ)</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУМАГА ВИСКОЗНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУАЛЕТНАЯ ВОДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА НЕМЕТАЛЛИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУМАГА ГОФРИРОВАННАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМПЛЕКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРАБАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВИНИЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЛИСТЕРНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЛОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВСПЕНЕННЫЙ ПОЛИСТИРОЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛБАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН ДВУХСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛЖИР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЧОНОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН ПЯТИСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУТЫЛКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН СЕМИСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЭГ-ИН-БОКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН ТРЕХСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГИЛЬЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕДРО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖУТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГОЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОРШОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНДОРРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКОРОБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА МЯГКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТАРКТИДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ КОНСЕРВИРОВАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДВОЙНОЙ БЛИСТЕР/CLAMSHELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА ТВЁРДАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ НАПИТКОВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАДКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА (ДВП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРГЕНТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАНИСТРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА СРЕДНЕЙ ПЛОТНОСТИ (МДФ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА СТЕКЛЯННАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРТОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСНО-СТРУЖЕЧНАЯ ПЛИТА (ДСтП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАТУШКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕЛЕЗО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АФГАНИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИГ-БЭГ (МЯГКИЙ КОНТЕЙНЕР)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕСТЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАГАМЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАМША</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНГЛАДЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕЙС/ЧЕХОЛ/ФУТЛЯР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРБОНАТ КАЛЬЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРБАДОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЛЕТЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАХРЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНВЕРТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРТОН ЛАМИНИРОВАННЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛИЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕЙНЕР ДЛЯ ПРОДУКТОВ ПИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕРАМИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕЙНЕР МЕДИЦИНСКИЙ МЯГКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЖА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЬГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАКУУМНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТУРНАЯ БЕЗЪЯЧЕЙКОВАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМБИНИРОВАННЫЙ МАТЕРИАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕНИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРЗИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАТУНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕРМУДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРОБКА С ПОДДОНОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЁН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛГАРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРОБКА/БОКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИНЕЙНЫЙ ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LLDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ГИБКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕТАЛЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОЙПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ЖЁСТКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕШКОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОТСВАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУВШИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИНЕРАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРАЗИЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛОТОК/ПОДНОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МНОГОСЛОЙНЫЙ ПОДЕЛОЧНЫЙ КАРТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАТУРАЛЬНЫЙ КАУЧУК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МУЛЬТИПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕЙЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБВЯЗОЧНОЕ СРЕДСТВО/ОБВЯЗКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЛОВО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУРКИНА-ФАСО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЁРНУТО В ПЛЁНКУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРИЕНТИРОВАННО-СТРУЖЕЧНАЯ ПЛИТА (ОСП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУРУНДИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЁРТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕНОМАТЕРИАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИПА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОДНОРАЗОВАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕНЬКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАНУАТУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ БЕЗ ФОРМЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРГАМЕНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЛБАСНАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ ПРЯМОУГОЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛАСТМАССА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ С ДОННОЙ СКЛАДКОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ ВЫСОКОБАРЬЕРНЫЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕНГРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕЙНЕР (ПОТРЕБИТЕЛЬСКИЙ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ ТРЕУГОЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ СРЕДНЕБАРЬЕРНЫЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕНЕСУЭЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИАКРИЛОНИТРИЛ (PAN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВНЕШНИЕ МАЛЫЕ ОСТРОВА (США)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИАМИД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОСТОЧНЫЙ ТИМОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА ВОЗВРАТНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИВИНИЛИДЕНХЛОРИД (PVDC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНУС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА НЕВОЗВРАТНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИВИНИЛОВЫЙ СПИРТ (PVA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАБОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОБИРКА МЕДИЦИНСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИВИНИЛХЛОРИД (PVC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАИТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУКАВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИГИДРОКСИАЛКАНОАТ (PHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЯЗКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИКАПРОЛАКТОН (PCL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИКАРБОНАТ (PC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВАДЕЛУПА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАКАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЛАКТИД (PLA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВАТЕМАЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТРЕТЧ-ПЛЁНКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИМЕР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВИНЕЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛОТОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУМКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИОЛЕФИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВИНЕЯ-БИСАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕЛЕЖКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГЕРМАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРМОУСАДОЧНАЯ/УСАДОЧНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИСТИРОЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГИБРАЛТАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОРТНИЦА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИУРЕТАН (PU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОНДУРАС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НА ВЕШАЛКЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН (PE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОНКОНГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛАКОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН ВЫСОКОЙ ПЛОТНОСТИ (HDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕНАДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЕРНУТО В ПЛЕНКУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛЯГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕНЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЕРТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИЛИНДР/ТУБУС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН СРЕДНЕЙ ПЛОТНОСТИ (MDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШОУ-БОКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕННАФТАЛАН (PEN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРУЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШПРИЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕНТЕРЕФТАЛАТ (ПЭТ/ПЭТФ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГУАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЯЩИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОВОЛОКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕЗИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА КОНГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ С БОКОВЫМИ СКЛАДКАМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВИНЕЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖИБУТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОМИНИКАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАЛЬ НЕРЖАВЕЮЩАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОМИНИКАНСКАЯ РЕСПУБЛИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТЕКЛО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕГИПЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОВТОРНО ЗАКРЫВАЕМАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТЕКЛО ЦВЕТНОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЛЬК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАПАДНАЯ САХАРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРМОПЛАСТИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗИМБАБВЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРМОПЛАСТИЧНЫЙ КРАХМАЛ (TPS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗРАИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАНЕРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНДОНЕЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАРФОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИОРДАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САШЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОЛЬГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОРМОВАННОЕ БУМАЖНОЕ ВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХЛОПОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦЕЛЛОФАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАКАНЧИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧУГУН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСПАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭПОКСИДНАЯ СМОЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭТИЛЕНВИНИЛАЦЕТАТ (EVA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЙЕМЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАРА С ОКОШКОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭТИЛЕНВИНИЛОВЫЙ СПИРТ (EVOH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАБО-ВЕРДЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ ПРИМЕНИМО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАЗАХСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАЙМАНОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕТРА ПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМБОДЖА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕТРА ФИНО АСЕПТИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМЕРУН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАНАДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРАНСПОРТНЫЙ ПАКЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАТАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУБУС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИПР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПАКОВКА ИЗ УСАДОЧНОЙ ПЛЕНКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРГИЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРИБАТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛОУПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЛУМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФУТЛЯР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОСТА-РИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЯЧЕИСТАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУВЕЙТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАТВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЕСОТО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИВАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИТВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАВРИКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАВРИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАДАГАСКАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЙОТТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКАО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛАВИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛЬДИВЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛЬТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРОККО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРТИНИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕКСИКА</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">МИКРОНЕЗИЯ, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ОБЪЕДИНЕННЫЕ ГОСУДАРСТВА </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА ТВЕРДАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЗАМБИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЛДАВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНАКО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНГОЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНТСЕРРАТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЬЯНМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАМИБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСКУССТВЕННАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАУРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕПАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИГЕР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИГЕРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИКАРАГУА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОРВЕГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОМАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ БУВЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАТУРАЛЬНАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ НОРФОЛК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ РОЖДЕСТВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ СВЯТОЙ ЕЛЕНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВА КУКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЛАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЛЕСТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАНАМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАПУА-НОВАЯ ГВИНЕЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАРАГВАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛЬША</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОРТУГАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУЭРТО-РИКО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕЮНЬОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУМЫНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛЬВАДОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САН-МАРИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВАЗИЛЕНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНЕГАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНГАПУР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОВАКИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОВЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">США</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОМАЛИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУДАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУРИНАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЬЕРРА-ЛЕОНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАДЖИКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАИЛАНД</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ТАЙВАНЬ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ПРОВИНЦИЯ КИТАЯ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ТАНЗАНИЯ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОКЕЛАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОНГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРИНИДАД И ТОБАГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУВАЛУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУНИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУРКМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УГАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЗБЕКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УКРАИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УОЛЛИС И ФУТУНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УРУГВАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАРЕРСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИДЖИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИЛИППИНЫ</t>
+    <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
   </si>
   <si>
     <t xml:space="preserve">Номер Регламента/стандарта</t>
@@ -1522,34 +1458,22 @@
     <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИНЛЯНДИЯ</t>
+    <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФОЛКЛЕНДСКИЕ ОСТРОВА (МАЛЬВИНСКИЕ)</t>
+    <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
-  </si>
-  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1570,10 +1494,7 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШРИ ЛАНКА</t>
+    <t xml:space="preserve">ШРИ-ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1594,10 +1515,7 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -2696,7 +2614,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2788,13 +2706,6 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3042,7 +2953,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3050,11 +2961,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3062,7 +2973,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3153,7 +3064,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18497,10 +18408,10 @@
   <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -18633,7 +18544,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18644,16 +18555,16 @@
         <v>57</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18664,16 +18575,16 @@
         <v>40</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18684,49 +18595,49 @@
         <v>62</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18737,13 +18648,13 @@
         <v>51</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18754,13 +18665,13 @@
         <v>58</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18771,13 +18682,13 @@
         <v>63</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18788,13 +18699,13 @@
         <v>68</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18805,13 +18716,13 @@
         <v>74</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18819,16 +18730,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18836,16 +18747,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18853,16 +18764,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18870,16 +18781,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18887,16 +18798,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18904,16 +18815,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18921,16 +18832,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18938,16 +18849,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18955,16 +18866,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18972,16 +18883,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18989,16 +18900,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19006,16 +18917,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19023,16 +18934,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19040,16 +18951,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19057,16 +18968,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19074,16 +18985,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19091,16 +19002,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19108,16 +19019,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19125,16 +19036,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19142,16 +19053,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19159,16 +19070,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19176,16 +19087,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19193,16 +19104,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19210,16 +19121,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19227,16 +19138,16 @@
         <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19244,16 +19155,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19261,16 +19172,16 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19278,16 +19189,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19295,16 +19206,16 @@
         <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19312,16 +19223,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19329,16 +19240,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19346,16 +19257,16 @@
         <v>4</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19363,16 +19274,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19380,16 +19291,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19397,16 +19308,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19414,16 +19325,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19431,16 +19342,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19448,16 +19359,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19465,16 +19376,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19482,16 +19393,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19499,16 +19410,16 @@
         <v>4</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19516,16 +19427,16 @@
         <v>4</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19533,16 +19444,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19550,16 +19461,16 @@
         <v>4</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19570,13 +19481,13 @@
         <v>42</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19584,16 +19495,16 @@
         <v>4</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19601,16 +19512,16 @@
         <v>4</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19618,16 +19529,16 @@
         <v>4</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19635,16 +19546,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I66" s="27" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19652,16 +19563,16 @@
         <v>4</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19669,16 +19580,16 @@
         <v>4</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19686,16 +19597,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19703,16 +19614,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19720,14 +19631,14 @@
         <v>4</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19735,14 +19646,14 @@
         <v>4</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19750,14 +19661,14 @@
         <v>4</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19765,13 +19676,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19779,13 +19690,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19793,13 +19704,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19807,13 +19718,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I77" s="27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19821,13 +19732,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I78" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19835,13 +19746,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19849,13 +19760,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19863,13 +19774,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19877,13 +19788,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19891,13 +19802,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19905,13 +19816,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19919,13 +19830,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19933,13 +19844,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19947,13 +19858,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19961,13 +19872,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19975,13 +19886,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I89" s="27" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19989,13 +19900,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20003,13 +19914,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20017,13 +19928,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G92" s="26" t="s">
         <v>63</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20031,13 +19942,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>58</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20045,10 +19956,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I94" s="27" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20056,10 +19967,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I95" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20067,10 +19978,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20078,10 +19989,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I97" s="27" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20089,10 +20000,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20100,10 +20011,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I99" s="27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20111,10 +20022,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I100" s="27" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20122,10 +20033,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20133,10 +20044,10 @@
         <v>4</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20144,10 +20055,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I103" s="27" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20155,10 +20066,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20166,10 +20077,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20177,10 +20088,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20188,10 +20099,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I107" s="27" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20199,10 +20110,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I108" s="27" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20210,20 +20121,20 @@
         <v>4</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I110" s="27" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I111" s="27" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20234,7 +20145,7 @@
         <v>51</v>
       </c>
       <c r="I112" s="27" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20245,7 +20156,7 @@
         <v>63</v>
       </c>
       <c r="I113" s="27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20256,7 +20167,7 @@
         <v>58</v>
       </c>
       <c r="I114" s="27" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20267,7 +20178,7 @@
         <v>52</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20278,7 +20189,7 @@
         <v>59</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20289,7 +20200,7 @@
         <v>64</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20300,7 +20211,7 @@
         <v>69</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20311,7 +20222,7 @@
         <v>43</v>
       </c>
       <c r="I119" s="27" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20319,10 +20230,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I120" s="27" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20330,10 +20241,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I121" s="27" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20341,10 +20252,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20352,10 +20263,10 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20363,10 +20274,10 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I124" s="27" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20374,10 +20285,10 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20385,10 +20296,10 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20396,10 +20307,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20407,10 +20318,10 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20418,10 +20329,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20429,10 +20340,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I130" s="27" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20440,21 +20351,21 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I132" s="27" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20462,10 +20373,10 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I133" s="27" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20473,10 +20384,10 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I134" s="27" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20484,10 +20395,10 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I135" s="27" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20495,10 +20406,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I136" s="27" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20506,10 +20417,10 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I137" s="27" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20517,10 +20428,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20528,10 +20439,10 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20539,10 +20450,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="I140" s="27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20550,10 +20461,10 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I141" s="27" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20561,10 +20472,10 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I142" s="27" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20572,10 +20483,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I143" s="27" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20583,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I144" s="27" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20594,10 +20505,10 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I145" s="27" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20605,10 +20516,10 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I146" s="27" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20616,10 +20527,10 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I147" s="27" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20627,10 +20538,10 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I148" s="27" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20638,10 +20549,10 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I149" s="27" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20649,10 +20560,10 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I150" s="27" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20660,10 +20571,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I151" s="27" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20671,10 +20582,10 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I152" s="27" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20682,10 +20593,10 @@
         <v>5</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I153" s="27" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20693,10 +20604,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I154" s="27" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20704,10 +20615,10 @@
         <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I155" s="27" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20715,10 +20626,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I156" s="27" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20726,10 +20637,10 @@
         <v>5</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I157" s="27" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20737,10 +20648,10 @@
         <v>5</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I158" s="27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20748,10 +20659,10 @@
         <v>5</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I159" s="27" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20759,10 +20670,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I160" s="27" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20770,10 +20681,10 @@
         <v>5</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I161" s="27" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20781,10 +20692,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I162" s="27" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20792,10 +20703,10 @@
         <v>5</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20803,10 +20714,10 @@
         <v>5</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I164" s="27" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20814,10 +20725,10 @@
         <v>5</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I165" s="27" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20825,10 +20736,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20836,10 +20747,10 @@
         <v>5</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20847,10 +20758,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I168" s="27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20858,10 +20769,10 @@
         <v>5</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I169" s="27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20869,21 +20780,21 @@
         <v>5</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I170" s="27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I171" s="27" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20891,10 +20802,10 @@
         <v>5</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I172" s="27" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20902,10 +20813,10 @@
         <v>5</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I173" s="27" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20913,10 +20824,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I174" s="27" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20924,10 +20835,10 @@
         <v>5</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I175" s="27" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20935,10 +20846,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I176" s="27" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20946,10 +20857,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I177" s="27" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20957,10 +20868,10 @@
         <v>5</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I178" s="27" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20968,10 +20879,10 @@
         <v>5</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I179" s="27" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20979,10 +20890,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I180" s="27" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20990,10 +20901,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21001,10 +20912,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21012,10 +20923,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I183" s="27" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21023,10 +20934,10 @@
         <v>5</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I184" s="27" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21034,10 +20945,10 @@
         <v>5</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I185" s="27" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21045,10 +20956,10 @@
         <v>5</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I186" s="27" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21056,10 +20967,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I187" s="27" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21067,10 +20978,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21078,10 +20989,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21089,10 +21000,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21100,10 +21011,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21111,10 +21022,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21122,10 +21033,10 @@
         <v>5</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I193" s="27" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21133,10 +21044,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I194" s="27" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21144,10 +21055,10 @@
         <v>5</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I195" s="27" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21155,10 +21066,10 @@
         <v>5</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I196" s="27" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21166,10 +21077,10 @@
         <v>5</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I197" s="27" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21177,10 +21088,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21188,10 +21099,10 @@
         <v>5</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21199,32 +21110,32 @@
         <v>5</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I201" s="27" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21232,10 +21143,10 @@
         <v>5</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I203" s="27" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21243,10 +21154,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I204" s="27" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,10 +21165,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I205" s="27" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21265,10 +21176,10 @@
         <v>5</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I206" s="27" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21276,20 +21187,20 @@
         <v>5</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I207" s="27" t="s">
-        <v>458</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="27" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I209" s="27" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21300,7 +21211,7 @@
         <v>44</v>
       </c>
       <c r="I210" s="27" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21311,7 +21222,7 @@
         <v>65</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>45</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21322,7 +21233,7 @@
         <v>70</v>
       </c>
       <c r="I212" s="27" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21333,7 +21244,7 @@
         <v>75</v>
       </c>
       <c r="I213" s="27" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21341,10 +21252,10 @@
         <v>6</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I214" s="27" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21355,7 +21266,7 @@
         <v>60</v>
       </c>
       <c r="I215" s="27" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21363,179 +21274,165 @@
         <v>6</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I216" s="27" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I217" s="27" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="27" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I219" s="27" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I220" s="27" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I221" s="27" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I222" s="27" t="s">
-        <v>79</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I223" s="27" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="27" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I225" s="27" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I226" s="27" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I227" s="27" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I228" s="27" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I229" s="27" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I230" s="27" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I231" s="27" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I232" s="27" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I233" s="27" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I234" s="27" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I235" s="27" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I236" s="27" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I237" s="27" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I238" s="27" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="27" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="27" t="s">
-        <v>493</v>
-      </c>
+      <c r="I240" s="27"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="27" t="s">
-        <v>494</v>
-      </c>
+      <c r="I241" s="27"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="27" t="s">
-        <v>495</v>
-      </c>
+      <c r="I242" s="27"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="27" t="s">
-        <v>496</v>
-      </c>
+      <c r="I243" s="27"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="27" t="s">
-        <v>497</v>
-      </c>
+      <c r="I244" s="27"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="27" t="s">
-        <v>498</v>
-      </c>
+      <c r="I245" s="27"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="27" t="s">
-        <v>499</v>
-      </c>
+      <c r="I246" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21562,7 +21459,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
@@ -21570,10 +21467,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21581,7 +21478,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21589,7 +21486,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21597,7 +21494,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21605,7 +21502,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21613,7 +21510,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21621,7 +21518,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21629,7 +21526,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21637,7 +21534,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21645,7 +21542,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21653,7 +21550,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21661,7 +21558,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21669,7 +21566,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21677,7 +21574,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21685,7 +21582,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21693,7 +21590,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21701,7 +21598,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21709,7 +21606,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21717,7 +21614,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21725,7 +21622,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21733,7 +21630,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21741,7 +21638,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21749,7 +21646,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21757,7 +21654,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21765,7 +21662,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21773,7 +21670,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21781,7 +21678,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21789,7 +21686,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21797,7 +21694,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21805,7 +21702,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21813,7 +21710,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21821,7 +21718,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21829,7 +21726,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21837,7 +21734,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21845,7 +21742,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21853,7 +21750,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21861,7 +21758,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21869,7 +21766,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21877,7 +21774,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21885,7 +21782,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21893,7 +21790,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21901,7 +21798,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21909,7 +21806,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21917,7 +21814,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21925,7 +21822,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21933,7 +21830,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21941,7 +21838,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21949,7 +21846,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21957,7 +21854,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21965,7 +21862,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21973,7 +21870,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21981,7 +21878,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21989,7 +21886,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21997,7 +21894,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22005,7 +21902,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22013,7 +21910,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22021,7 +21918,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22029,7 +21926,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22037,7 +21934,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22045,7 +21942,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22053,7 +21950,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22061,7 +21958,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22069,7 +21966,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22077,7 +21974,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22085,7 +21982,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22093,7 +21990,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22101,7 +21998,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22109,7 +22006,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22117,7 +22014,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22125,7 +22022,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22133,7 +22030,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22141,7 +22038,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22149,7 +22046,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22157,7 +22054,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22165,7 +22062,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22173,7 +22070,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22181,7 +22078,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22189,7 +22086,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22197,7 +22094,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22205,7 +22102,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22213,7 +22110,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22221,7 +22118,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22229,7 +22126,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22237,7 +22134,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22245,7 +22142,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22253,7 +22150,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22261,7 +22158,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22269,7 +22166,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22277,7 +22174,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22285,7 +22182,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22293,7 +22190,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22301,7 +22198,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22309,7 +22206,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22317,7 +22214,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22325,7 +22222,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22333,7 +22230,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22341,7 +22238,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22349,7 +22246,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22357,7 +22254,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22365,7 +22262,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22373,7 +22270,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22381,7 +22278,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22389,7 +22286,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22397,7 +22294,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22405,7 +22302,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22413,7 +22310,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22421,7 +22318,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22429,7 +22326,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22437,7 +22334,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22445,7 +22342,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22453,7 +22350,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22461,7 +22358,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22469,7 +22366,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22477,7 +22374,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22485,7 +22382,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22493,7 +22390,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22501,7 +22398,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22509,7 +22406,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22517,7 +22414,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22525,7 +22422,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22533,7 +22430,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22541,7 +22438,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22549,7 +22446,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22557,7 +22454,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22565,7 +22462,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22573,7 +22470,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22581,7 +22478,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22589,7 +22486,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22597,7 +22494,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22605,7 +22502,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22613,7 +22510,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22621,7 +22518,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22629,7 +22526,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22637,7 +22534,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22645,7 +22542,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22653,7 +22550,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22661,7 +22558,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22669,7 +22566,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22677,7 +22574,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22685,7 +22582,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22693,7 +22590,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22701,7 +22598,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22709,7 +22606,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22717,7 +22614,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22725,7 +22622,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="647">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1143,7 +1143,7 @@
     <t xml:space="preserve">МАЛАВИ</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">МАЛИ</t>
@@ -1293,10 +1293,13 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЯ</t>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -1326,13 +1329,7 @@
     <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-МАРТЕН</t>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
   </si>
   <si>
     <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
@@ -1344,7 +1341,7 @@
     <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
   </si>
   <si>
     <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
@@ -1356,16 +1353,19 @@
     <t xml:space="preserve">СИНГАПУР</t>
   </si>
   <si>
-    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СИРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СЛОВАКИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СЛОВЕНИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
   </si>
   <si>
-    <t xml:space="preserve">СЛОВЕНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -1386,13 +1386,16 @@
     <t xml:space="preserve">ТАДЖИКИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАЙВАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЙЛАНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАНЗАНИЯ</t>
+    <t xml:space="preserve">ТАИЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ, ПРОВИНЦИЯ КИТАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ, ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
   </si>
   <si>
     <t xml:space="preserve">ТОГО</t>
@@ -1413,7 +1416,7 @@
     <t xml:space="preserve">ТУНИС</t>
   </si>
   <si>
-    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+    <t xml:space="preserve">ТУРКМЕНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">УГАНДА</t>
@@ -1449,31 +1452,34 @@
     <t xml:space="preserve">ФРАНЦИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Номер Регламента/стандарта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
+  </si>
+  <si>
     <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
   </si>
   <si>
-    <t xml:space="preserve">Номер Регламента/стандарта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
+    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
+    <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
-    <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
+    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1494,7 +1500,10 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШРИ-ЛАНКА</t>
+    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШРИ ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1515,7 +1524,10 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
+    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЖНАЯ ОСЕТИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -3064,7 +3076,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18407,11 +18419,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -21190,12 +21202,12 @@
         <v>332</v>
       </c>
       <c r="I207" s="27" t="s">
-        <v>45</v>
+        <v>462</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="27" t="s">
-        <v>462</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21414,16 +21426,24 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="27"/>
+      <c r="I240" s="27" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="27"/>
+      <c r="I241" s="27" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="27"/>
+      <c r="I242" s="27" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="27"/>
+      <c r="I243" s="27" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I244" s="27"/>
@@ -21459,7 +21479,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
@@ -21467,10 +21487,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21478,7 +21498,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21486,7 +21506,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21494,7 +21514,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21502,7 +21522,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21510,7 +21530,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21518,7 +21538,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21526,7 +21546,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21534,7 +21554,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21542,7 +21562,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21550,7 +21570,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21558,7 +21578,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21566,7 +21586,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21574,7 +21594,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21582,7 +21602,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21590,7 +21610,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21598,7 +21618,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21606,7 +21626,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21614,7 +21634,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21622,7 +21642,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21630,7 +21650,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21638,7 +21658,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21646,7 +21666,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21654,7 +21674,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21662,7 +21682,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21670,7 +21690,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21678,7 +21698,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21686,7 +21706,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21694,7 +21714,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21702,7 +21722,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21710,7 +21730,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21718,7 +21738,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21726,7 +21746,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21734,7 +21754,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21742,7 +21762,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21750,7 +21770,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21758,7 +21778,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21766,7 +21786,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21774,7 +21794,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21782,7 +21802,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21790,7 +21810,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21798,7 +21818,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21806,7 +21826,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21814,7 +21834,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21822,7 +21842,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21830,7 +21850,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21838,7 +21858,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21846,7 +21866,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21854,7 +21874,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21862,7 +21882,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21870,7 +21890,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21878,7 +21898,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21886,7 +21906,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21894,7 +21914,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21902,7 +21922,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21910,7 +21930,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21918,7 +21938,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21926,7 +21946,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21934,7 +21954,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21942,7 +21962,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21950,7 +21970,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21958,7 +21978,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21966,7 +21986,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21974,7 +21994,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21982,7 +22002,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21990,7 +22010,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21998,7 +22018,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22006,7 +22026,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22014,7 +22034,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22022,7 +22042,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22030,7 +22050,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22038,7 +22058,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22046,7 +22066,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22054,7 +22074,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22062,7 +22082,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22070,7 +22090,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22078,7 +22098,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22086,7 +22106,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22094,7 +22114,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22102,7 +22122,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22110,7 +22130,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22118,7 +22138,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22126,7 +22146,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22134,7 +22154,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22142,7 +22162,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22150,7 +22170,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22158,7 +22178,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22166,7 +22186,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22174,7 +22194,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22182,7 +22202,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22190,7 +22210,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22198,7 +22218,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22206,7 +22226,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22214,7 +22234,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22222,7 +22242,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22230,7 +22250,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22238,7 +22258,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22246,7 +22266,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22254,7 +22274,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22262,7 +22282,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22270,7 +22290,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22278,7 +22298,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22286,7 +22306,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22294,7 +22314,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22302,7 +22322,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22310,7 +22330,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22318,7 +22338,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22326,7 +22346,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22334,7 +22354,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22342,7 +22362,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22350,7 +22370,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22358,7 +22378,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22366,7 +22386,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22374,7 +22394,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22382,7 +22402,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22390,7 +22410,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22398,7 +22418,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22406,7 +22426,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22414,7 +22434,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22422,7 +22442,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22430,7 +22450,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22438,7 +22458,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22446,7 +22466,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22454,7 +22474,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22462,7 +22482,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22470,7 +22490,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22478,7 +22498,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22486,7 +22506,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22494,7 +22514,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22502,7 +22522,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22510,7 +22530,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22518,7 +22538,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22526,7 +22546,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22534,7 +22554,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22542,7 +22562,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22550,7 +22570,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22558,7 +22578,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22566,7 +22586,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22574,7 +22594,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22582,7 +22602,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22590,7 +22610,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22598,7 +22618,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22606,7 +22626,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22614,7 +22634,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22622,7 +22642,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -1074,7 +1074,7 @@
     <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КОСТА-РИКА</t>
@@ -1290,7 +1290,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -1365,7 +1365,7 @@
     <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
   </si>
   <si>
-    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+    <t xml:space="preserve">США</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -3076,7 +3076,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18423,7 +18423,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -21479,7 +21479,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -1230,7 +1230,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -3076,7 +3076,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18419,11 +18419,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I147" activeCellId="0" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -21479,7 +21479,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -1299,7 +1299,7 @@
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+    <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -2626,7 +2626,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2719,6 +2719,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2844,7 +2850,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2965,7 +2971,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2973,11 +2983,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2985,7 +2995,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3076,7 +3086,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18419,11 +18429,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I147" activeCellId="0" sqref="I147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I169" activeCellId="0" sqref="I169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -20783,7 +20793,7 @@
       <c r="B169" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="I169" s="27" t="s">
+      <c r="I169" s="30" t="s">
         <v>423</v>
       </c>
     </row>
@@ -21479,25 +21489,25 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="n">
+      <c r="A2" s="33" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>504</v>
       </c>
     </row>
@@ -21505,7 +21515,7 @@
       <c r="A3" s="1" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>505</v>
       </c>
     </row>
@@ -21513,15 +21523,15 @@
       <c r="A4" s="1" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="n">
+      <c r="A5" s="33" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>507</v>
       </c>
     </row>
@@ -21529,7 +21539,7 @@
       <c r="A6" s="1" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>508</v>
       </c>
     </row>
@@ -21537,7 +21547,7 @@
       <c r="A7" s="1" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>509</v>
       </c>
     </row>
@@ -21545,7 +21555,7 @@
       <c r="A8" s="1" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>510</v>
       </c>
     </row>
@@ -21553,7 +21563,7 @@
       <c r="A9" s="1" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>511</v>
       </c>
     </row>
@@ -21561,7 +21571,7 @@
       <c r="A10" s="1" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>512</v>
       </c>
     </row>
@@ -21569,15 +21579,15 @@
       <c r="A11" s="1" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="33" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>514</v>
       </c>
     </row>
@@ -21585,7 +21595,7 @@
       <c r="A13" s="1" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>515</v>
       </c>
     </row>
@@ -21593,7 +21603,7 @@
       <c r="A14" s="1" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>516</v>
       </c>
     </row>
@@ -21601,7 +21611,7 @@
       <c r="A15" s="1" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>517</v>
       </c>
     </row>
@@ -21609,7 +21619,7 @@
       <c r="A16" s="1" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>518</v>
       </c>
     </row>
@@ -21617,7 +21627,7 @@
       <c r="A17" s="1" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>519</v>
       </c>
     </row>
@@ -21625,7 +21635,7 @@
       <c r="A18" s="1" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>520</v>
       </c>
     </row>
@@ -21633,7 +21643,7 @@
       <c r="A19" s="1" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>521</v>
       </c>
     </row>
@@ -21641,7 +21651,7 @@
       <c r="A20" s="1" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>522</v>
       </c>
     </row>
@@ -21649,7 +21659,7 @@
       <c r="A21" s="1" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>523</v>
       </c>
     </row>
@@ -21657,7 +21667,7 @@
       <c r="A22" s="1" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>524</v>
       </c>
     </row>
@@ -21665,15 +21675,15 @@
       <c r="A23" s="1" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="n">
+      <c r="A24" s="33" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>526</v>
       </c>
     </row>
@@ -21681,7 +21691,7 @@
       <c r="A25" s="1" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>527</v>
       </c>
     </row>
@@ -21689,7 +21699,7 @@
       <c r="A26" s="1" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>528</v>
       </c>
     </row>
@@ -21697,7 +21707,7 @@
       <c r="A27" s="1" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>529</v>
       </c>
     </row>
@@ -21705,7 +21715,7 @@
       <c r="A28" s="1" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>530</v>
       </c>
     </row>
@@ -21713,7 +21723,7 @@
       <c r="A29" s="1" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>531</v>
       </c>
     </row>
@@ -21721,7 +21731,7 @@
       <c r="A30" s="1" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>532</v>
       </c>
     </row>
@@ -21729,7 +21739,7 @@
       <c r="A31" s="1" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>533</v>
       </c>
     </row>
@@ -21737,7 +21747,7 @@
       <c r="A32" s="1" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>534</v>
       </c>
     </row>
@@ -21745,7 +21755,7 @@
       <c r="A33" s="1" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>535</v>
       </c>
     </row>
@@ -21753,7 +21763,7 @@
       <c r="A34" s="1" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>536</v>
       </c>
     </row>
@@ -21761,7 +21771,7 @@
       <c r="A35" s="1" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="35" t="s">
         <v>537</v>
       </c>
     </row>
@@ -21769,7 +21779,7 @@
       <c r="A36" s="1" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>538</v>
       </c>
     </row>
@@ -21777,7 +21787,7 @@
       <c r="A37" s="1" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>539</v>
       </c>
     </row>
@@ -21785,7 +21795,7 @@
       <c r="A38" s="1" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="35" t="s">
         <v>540</v>
       </c>
     </row>
@@ -21793,7 +21803,7 @@
       <c r="A39" s="1" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21801,7 +21811,7 @@
       <c r="A40" s="1" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>542</v>
       </c>
     </row>
@@ -21809,7 +21819,7 @@
       <c r="A41" s="1" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>543</v>
       </c>
     </row>
@@ -21817,7 +21827,7 @@
       <c r="A42" s="1" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>544</v>
       </c>
     </row>
@@ -21825,7 +21835,7 @@
       <c r="A43" s="1" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="35" t="s">
         <v>545</v>
       </c>
     </row>
@@ -21833,7 +21843,7 @@
       <c r="A44" s="1" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>546</v>
       </c>
     </row>
@@ -21841,7 +21851,7 @@
       <c r="A45" s="1" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="35" t="s">
         <v>547</v>
       </c>
     </row>
@@ -21849,7 +21859,7 @@
       <c r="A46" s="1" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>548</v>
       </c>
     </row>
@@ -21857,7 +21867,7 @@
       <c r="A47" s="1" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="35" t="s">
         <v>549</v>
       </c>
     </row>
@@ -21865,7 +21875,7 @@
       <c r="A48" s="1" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>550</v>
       </c>
     </row>
@@ -21873,15 +21883,15 @@
       <c r="A49" s="1" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="32" t="n">
+      <c r="A50" s="33" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="34" t="s">
         <v>552</v>
       </c>
     </row>
@@ -21889,7 +21899,7 @@
       <c r="A51" s="1" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>553</v>
       </c>
     </row>
@@ -21897,7 +21907,7 @@
       <c r="A52" s="1" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="35" t="s">
         <v>554</v>
       </c>
     </row>
@@ -21905,7 +21915,7 @@
       <c r="A53" s="1" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="35" t="s">
         <v>555</v>
       </c>
     </row>
@@ -21913,7 +21923,7 @@
       <c r="A54" s="1" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>556</v>
       </c>
     </row>
@@ -21921,7 +21931,7 @@
       <c r="A55" s="1" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="35" t="s">
         <v>557</v>
       </c>
     </row>
@@ -21929,7 +21939,7 @@
       <c r="A56" s="1" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>558</v>
       </c>
     </row>
@@ -21937,15 +21947,15 @@
       <c r="A57" s="1" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32" t="n">
+      <c r="A58" s="33" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>560</v>
       </c>
     </row>
@@ -21953,7 +21963,7 @@
       <c r="A59" s="1" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>561</v>
       </c>
     </row>
@@ -21961,15 +21971,15 @@
       <c r="A60" s="1" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="35" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="32" t="n">
+      <c r="A61" s="33" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="34" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21977,7 +21987,7 @@
       <c r="A62" s="1" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21985,7 +21995,7 @@
       <c r="A63" s="1" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="35" t="s">
         <v>565</v>
       </c>
     </row>
@@ -21993,7 +22003,7 @@
       <c r="A64" s="1" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="35" t="s">
         <v>566</v>
       </c>
     </row>
@@ -22001,7 +22011,7 @@
       <c r="A65" s="1" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>567</v>
       </c>
     </row>
@@ -22009,7 +22019,7 @@
       <c r="A66" s="1" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22017,7 +22027,7 @@
       <c r="A67" s="1" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="35" t="s">
         <v>569</v>
       </c>
     </row>
@@ -22025,7 +22035,7 @@
       <c r="A68" s="1" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>570</v>
       </c>
     </row>
@@ -22033,15 +22043,15 @@
       <c r="A69" s="1" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="32" t="n">
+      <c r="A70" s="33" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="34" t="s">
         <v>572</v>
       </c>
     </row>
@@ -22049,7 +22059,7 @@
       <c r="A71" s="1" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>573</v>
       </c>
     </row>
@@ -22057,7 +22067,7 @@
       <c r="A72" s="1" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="35" t="s">
         <v>574</v>
       </c>
     </row>
@@ -22065,7 +22075,7 @@
       <c r="A73" s="1" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="35" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22073,15 +22083,15 @@
       <c r="A74" s="1" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="32" t="n">
+      <c r="A75" s="33" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="34" t="s">
         <v>577</v>
       </c>
     </row>
@@ -22089,7 +22099,7 @@
       <c r="A76" s="1" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>578</v>
       </c>
     </row>
@@ -22097,7 +22107,7 @@
       <c r="A77" s="1" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="35" t="s">
         <v>579</v>
       </c>
     </row>
@@ -22105,7 +22115,7 @@
       <c r="A78" s="1" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="35" t="s">
         <v>580</v>
       </c>
     </row>
@@ -22113,7 +22123,7 @@
       <c r="A79" s="1" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>581</v>
       </c>
     </row>
@@ -22121,7 +22131,7 @@
       <c r="A80" s="1" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="35" t="s">
         <v>582</v>
       </c>
     </row>
@@ -22129,7 +22139,7 @@
       <c r="A81" s="1" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="35" t="s">
         <v>583</v>
       </c>
     </row>
@@ -22137,7 +22147,7 @@
       <c r="A82" s="1" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="35" t="s">
         <v>584</v>
       </c>
     </row>
@@ -22145,7 +22155,7 @@
       <c r="A83" s="1" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="35" t="s">
         <v>585</v>
       </c>
     </row>
@@ -22153,7 +22163,7 @@
       <c r="A84" s="1" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="35" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22161,7 +22171,7 @@
       <c r="A85" s="1" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="35" t="s">
         <v>587</v>
       </c>
     </row>
@@ -22169,7 +22179,7 @@
       <c r="A86" s="1" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="35" t="s">
         <v>588</v>
       </c>
     </row>
@@ -22177,7 +22187,7 @@
       <c r="A87" s="1" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="35" t="s">
         <v>589</v>
       </c>
     </row>
@@ -22185,7 +22195,7 @@
       <c r="A88" s="1" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="35" t="s">
         <v>590</v>
       </c>
     </row>
@@ -22193,7 +22203,7 @@
       <c r="A89" s="1" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="35" t="s">
         <v>591</v>
       </c>
     </row>
@@ -22201,15 +22211,15 @@
       <c r="A90" s="1" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="35" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="32" t="n">
+      <c r="A91" s="33" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="34" t="s">
         <v>592</v>
       </c>
     </row>
@@ -22217,7 +22227,7 @@
       <c r="A92" s="1" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="35" t="s">
         <v>593</v>
       </c>
     </row>
@@ -22225,7 +22235,7 @@
       <c r="A93" s="1" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="35" t="s">
         <v>594</v>
       </c>
     </row>
@@ -22233,7 +22243,7 @@
       <c r="A94" s="1" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="35" t="s">
         <v>595</v>
       </c>
     </row>
@@ -22241,7 +22251,7 @@
       <c r="A95" s="1" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="35" t="s">
         <v>596</v>
       </c>
     </row>
@@ -22249,7 +22259,7 @@
       <c r="A96" s="1" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="35" t="s">
         <v>597</v>
       </c>
     </row>
@@ -22257,7 +22267,7 @@
       <c r="A97" s="1" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="35" t="s">
         <v>598</v>
       </c>
     </row>
@@ -22265,7 +22275,7 @@
       <c r="A98" s="1" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="35" t="s">
         <v>599</v>
       </c>
     </row>
@@ -22273,7 +22283,7 @@
       <c r="A99" s="1" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="35" t="s">
         <v>600</v>
       </c>
     </row>
@@ -22281,7 +22291,7 @@
       <c r="A100" s="1" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="35" t="s">
         <v>601</v>
       </c>
     </row>
@@ -22289,7 +22299,7 @@
       <c r="A101" s="1" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="35" t="s">
         <v>602</v>
       </c>
     </row>
@@ -22297,7 +22307,7 @@
       <c r="A102" s="1" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="35" t="s">
         <v>603</v>
       </c>
     </row>
@@ -22305,7 +22315,7 @@
       <c r="A103" s="1" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="35" t="s">
         <v>604</v>
       </c>
     </row>
@@ -22313,7 +22323,7 @@
       <c r="A104" s="1" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="35" t="s">
         <v>605</v>
       </c>
     </row>
@@ -22321,7 +22331,7 @@
       <c r="A105" s="1" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="35" t="s">
         <v>606</v>
       </c>
     </row>
@@ -22329,7 +22339,7 @@
       <c r="A106" s="1" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="35" t="s">
         <v>607</v>
       </c>
     </row>
@@ -22337,7 +22347,7 @@
       <c r="A107" s="1" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="35" t="s">
         <v>608</v>
       </c>
     </row>
@@ -22345,7 +22355,7 @@
       <c r="A108" s="1" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="35" t="s">
         <v>609</v>
       </c>
     </row>
@@ -22353,7 +22363,7 @@
       <c r="A109" s="1" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="35" t="s">
         <v>610</v>
       </c>
     </row>
@@ -22361,7 +22371,7 @@
       <c r="A110" s="1" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="35" t="s">
         <v>611</v>
       </c>
     </row>
@@ -22369,7 +22379,7 @@
       <c r="A111" s="1" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="35" t="s">
         <v>612</v>
       </c>
     </row>
@@ -22377,7 +22387,7 @@
       <c r="A112" s="1" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="35" t="s">
         <v>613</v>
       </c>
     </row>
@@ -22385,7 +22395,7 @@
       <c r="A113" s="1" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="35" t="s">
         <v>614</v>
       </c>
     </row>
@@ -22393,7 +22403,7 @@
       <c r="A114" s="1" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="35" t="s">
         <v>615</v>
       </c>
     </row>
@@ -22401,7 +22411,7 @@
       <c r="A115" s="1" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="35" t="s">
         <v>616</v>
       </c>
     </row>
@@ -22409,7 +22419,7 @@
       <c r="A116" s="1" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="35" t="s">
         <v>617</v>
       </c>
     </row>
@@ -22417,7 +22427,7 @@
       <c r="A117" s="1" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="35" t="s">
         <v>618</v>
       </c>
     </row>
@@ -22425,7 +22435,7 @@
       <c r="A118" s="1" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="35" t="s">
         <v>619</v>
       </c>
     </row>
@@ -22433,7 +22443,7 @@
       <c r="A119" s="1" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="35" t="s">
         <v>620</v>
       </c>
     </row>
@@ -22441,7 +22451,7 @@
       <c r="A120" s="1" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="35" t="s">
         <v>621</v>
       </c>
     </row>
@@ -22449,7 +22459,7 @@
       <c r="A121" s="1" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="35" t="s">
         <v>622</v>
       </c>
     </row>
@@ -22457,7 +22467,7 @@
       <c r="A122" s="1" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="35" t="s">
         <v>623</v>
       </c>
     </row>
@@ -22465,7 +22475,7 @@
       <c r="A123" s="1" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="35" t="s">
         <v>624</v>
       </c>
     </row>
@@ -22473,7 +22483,7 @@
       <c r="A124" s="1" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="35" t="s">
         <v>625</v>
       </c>
     </row>
@@ -22481,7 +22491,7 @@
       <c r="A125" s="1" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="35" t="s">
         <v>626</v>
       </c>
     </row>
@@ -22489,7 +22499,7 @@
       <c r="A126" s="1" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="35" t="s">
         <v>627</v>
       </c>
     </row>
@@ -22497,7 +22507,7 @@
       <c r="A127" s="1" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="35" t="s">
         <v>628</v>
       </c>
     </row>
@@ -22505,7 +22515,7 @@
       <c r="A128" s="1" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="35" t="s">
         <v>629</v>
       </c>
     </row>
@@ -22513,7 +22523,7 @@
       <c r="A129" s="1" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="35" t="s">
         <v>630</v>
       </c>
     </row>
@@ -22521,7 +22531,7 @@
       <c r="A130" s="1" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="35" t="s">
         <v>631</v>
       </c>
     </row>
@@ -22529,15 +22539,15 @@
       <c r="A131" s="1" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="35" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="32" t="n">
+      <c r="A132" s="33" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="34" t="s">
         <v>633</v>
       </c>
     </row>
@@ -22545,7 +22555,7 @@
       <c r="A133" s="1" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="35" t="s">
         <v>634</v>
       </c>
     </row>
@@ -22553,7 +22563,7 @@
       <c r="A134" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="35" t="s">
         <v>635</v>
       </c>
     </row>
@@ -22561,7 +22571,7 @@
       <c r="A135" s="1" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="35" t="s">
         <v>636</v>
       </c>
     </row>
@@ -22569,7 +22579,7 @@
       <c r="A136" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="35" t="s">
         <v>637</v>
       </c>
     </row>
@@ -22577,15 +22587,15 @@
       <c r="A137" s="1" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="35" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="32" t="n">
+      <c r="A138" s="33" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="34" t="s">
         <v>639</v>
       </c>
     </row>
@@ -22593,7 +22603,7 @@
       <c r="A139" s="1" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="35" t="s">
         <v>640</v>
       </c>
     </row>
@@ -22601,7 +22611,7 @@
       <c r="A140" s="1" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="35" t="s">
         <v>641</v>
       </c>
     </row>
@@ -22609,7 +22619,7 @@
       <c r="A141" s="1" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="35" t="s">
         <v>642</v>
       </c>
     </row>
@@ -22617,7 +22627,7 @@
       <c r="A142" s="1" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="35" t="s">
         <v>643</v>
       </c>
     </row>
@@ -22625,7 +22635,7 @@
       <c r="A143" s="1" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="35" t="s">
         <v>644</v>
       </c>
     </row>
@@ -22633,7 +22643,7 @@
       <c r="A144" s="1" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="35" t="s">
         <v>645</v>
       </c>
     </row>
@@ -22641,7 +22651,7 @@
       <c r="A145" s="1" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="35" t="s">
         <v>646</v>
       </c>
     </row>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -450,7 +450,7 @@
     <t xml:space="preserve">ЖЕСТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
@@ -2725,6 +2725,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3083,10 +3084,10 @@
   <dimension ref="A1:P1008"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="K1680" activeCellId="0" sqref="K1680"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18368,6 +18369,7 @@
       <c r="N1007" s="2"/>
     </row>
     <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1008" s="18"/>
       <c r="L1008" s="22"/>
       <c r="M1008" s="2"/>
       <c r="N1008" s="2"/>
@@ -18391,10 +18393,6 @@
       <formula1>129</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K1007" type="list">
-      <formula1>Справочники!$I$2:$I$246</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L7:L1008" type="list">
       <formula1>Справочники!$J$2:$J$4</formula1>
       <formula2>0</formula2>
@@ -18409,6 +18407,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H7:H1008" type="list">
       <formula1>Справочники!$H$2:$H$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K1008" type="list">
+      <formula1>Справочники!$I$2:$I$243</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -18429,11 +18431,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I169" activeCellId="0" sqref="I169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -21489,7 +21491,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по каждой позиции.xlsx
+++ b/app/download_dir/парфюм_по каждой позиции.xlsx
@@ -450,7 +450,7 @@
     <t xml:space="preserve">ЖЕСТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
@@ -2626,7 +2626,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2719,6 +2719,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2851,7 +2857,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2976,7 +2982,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2984,11 +2994,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2996,7 +3006,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3087,7 +3097,7 @@
       <selection pane="topLeft" activeCell="K1680" activeCellId="0" sqref="K1680"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -18432,10 +18442,10 @@
   <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -18881,7 +18891,7 @@
       <c r="G25" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="30" t="s">
         <v>140</v>
       </c>
     </row>
@@ -20795,7 +20805,7 @@
       <c r="B169" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="I169" s="30" t="s">
+      <c r="I169" s="31" t="s">
         <v>423</v>
       </c>
     </row>
@@ -21491,25 +21501,25 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="34" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>504</v>
       </c>
     </row>
@@ -21517,7 +21527,7 @@
       <c r="A3" s="1" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>505</v>
       </c>
     </row>
@@ -21525,15 +21535,15 @@
       <c r="A4" s="1" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="34" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>507</v>
       </c>
     </row>
@@ -21541,7 +21551,7 @@
       <c r="A6" s="1" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>508</v>
       </c>
     </row>
@@ -21549,7 +21559,7 @@
       <c r="A7" s="1" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>509</v>
       </c>
     </row>
@@ -21557,7 +21567,7 @@
       <c r="A8" s="1" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>510</v>
       </c>
     </row>
@@ -21565,7 +21575,7 @@
       <c r="A9" s="1" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>511</v>
       </c>
     </row>
@@ -21573,7 +21583,7 @@
       <c r="A10" s="1" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>512</v>
       </c>
     </row>
@@ -21581,15 +21591,15 @@
       <c r="A11" s="1" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="34" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>514</v>
       </c>
     </row>
@@ -21597,7 +21607,7 @@
       <c r="A13" s="1" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>515</v>
       </c>
     </row>
@@ -21605,7 +21615,7 @@
       <c r="A14" s="1" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>516</v>
       </c>
     </row>
@@ -21613,7 +21623,7 @@
       <c r="A15" s="1" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>517</v>
       </c>
     </row>
@@ -21621,7 +21631,7 @@
       <c r="A16" s="1" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>518</v>
       </c>
     </row>
@@ -21629,7 +21639,7 @@
       <c r="A17" s="1" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>519</v>
       </c>
     </row>
@@ -21637,7 +21647,7 @@
       <c r="A18" s="1" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>520</v>
       </c>
     </row>
@@ -21645,7 +21655,7 @@
       <c r="A19" s="1" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>521</v>
       </c>
     </row>
@@ -21653,7 +21663,7 @@
       <c r="A20" s="1" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>522</v>
       </c>
     </row>
@@ -21661,7 +21671,7 @@
       <c r="A21" s="1" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="36" t="s">
         <v>523</v>
       </c>
     </row>
@@ -21669,7 +21679,7 @@
       <c r="A22" s="1" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>524</v>
       </c>
     </row>
@@ -21677,15 +21687,15 @@
       <c r="A23" s="1" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="n">
+      <c r="A24" s="34" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>526</v>
       </c>
     </row>
@@ -21693,7 +21703,7 @@
       <c r="A25" s="1" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>527</v>
       </c>
     </row>
@@ -21701,7 +21711,7 @@
       <c r="A26" s="1" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="36" t="s">
         <v>528</v>
       </c>
     </row>
@@ -21709,7 +21719,7 @@
       <c r="A27" s="1" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>529</v>
       </c>
     </row>
@@ -21717,7 +21727,7 @@
       <c r="A28" s="1" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>530</v>
       </c>
     </row>
@@ -21725,7 +21735,7 @@
       <c r="A29" s="1" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>531</v>
       </c>
     </row>
@@ -21733,7 +21743,7 @@
       <c r="A30" s="1" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="36" t="s">
         <v>532</v>
       </c>
     </row>
@@ -21741,7 +21751,7 @@
       <c r="A31" s="1" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>533</v>
       </c>
     </row>
@@ -21749,7 +21759,7 @@
       <c r="A32" s="1" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="36" t="s">
         <v>534</v>
       </c>
     </row>
@@ -21757,7 +21767,7 @@
       <c r="A33" s="1" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="36" t="s">
         <v>535</v>
       </c>
     </row>
@@ -21765,7 +21775,7 @@
       <c r="A34" s="1" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="36" t="s">
         <v>536</v>
       </c>
     </row>
@@ -21773,7 +21783,7 @@
       <c r="A35" s="1" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="36" t="s">
         <v>537</v>
       </c>
     </row>
@@ -21781,7 +21791,7 @@
       <c r="A36" s="1" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>538</v>
       </c>
     </row>
@@ -21789,7 +21799,7 @@
       <c r="A37" s="1" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="36" t="s">
         <v>539</v>
       </c>
     </row>
@@ -21797,7 +21807,7 @@
       <c r="A38" s="1" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>540</v>
       </c>
     </row>
@@ -21805,7 +21815,7 @@
       <c r="A39" s="1" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="36" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21813,7 +21823,7 @@
       <c r="A40" s="1" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>542</v>
       </c>
     </row>
@@ -21821,7 +21831,7 @@
       <c r="A41" s="1" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="36" t="s">
         <v>543</v>
       </c>
     </row>
@@ -21829,7 +21839,7 @@
       <c r="A42" s="1" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="36" t="s">
         <v>544</v>
       </c>
     </row>
@@ -21837,7 +21847,7 @@
       <c r="A43" s="1" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="36" t="s">
         <v>545</v>
       </c>
     </row>
@@ -21845,7 +21855,7 @@
       <c r="A44" s="1" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>546</v>
       </c>
     </row>
@@ -21853,7 +21863,7 @@
       <c r="A45" s="1" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="36" t="s">
         <v>547</v>
       </c>
     </row>
@@ -21861,7 +21871,7 @@
       <c r="A46" s="1" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>548</v>
       </c>
     </row>
@@ -21869,7 +21879,7 @@
       <c r="A47" s="1" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="36" t="s">
         <v>549</v>
       </c>
     </row>
@@ -21877,7 +21887,7 @@
       <c r="A48" s="1" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
         <v>550</v>
       </c>
     </row>
@@ -21885,15 +21895,15 @@
       <c r="A49" s="1" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="36" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33" t="n">
+      <c r="A50" s="34" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="35" t="s">
         <v>552</v>
       </c>
     </row>
@@ -21901,7 +21911,7 @@
       <c r="A51" s="1" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="36" t="s">
         <v>553</v>
       </c>
     </row>
@@ -21909,7 +21919,7 @@
       <c r="A52" s="1" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="36" t="s">
         <v>554</v>
       </c>
     </row>
@@ -21917,7 +21927,7 @@
       <c r="A53" s="1" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="36" t="s">
         <v>555</v>
       </c>
     </row>
@@ -21925,7 +21935,7 @@
       <c r="A54" s="1" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="36" t="s">
         <v>556</v>
       </c>
     </row>
@@ -21933,7 +21943,7 @@
       <c r="A55" s="1" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="36" t="s">
         <v>557</v>
       </c>
     </row>
@@ -21941,7 +21951,7 @@
       <c r="A56" s="1" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="36" t="s">
         <v>558</v>
       </c>
     </row>
@@ -21949,15 +21959,15 @@
       <c r="A57" s="1" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="36" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="n">
+      <c r="A58" s="34" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>560</v>
       </c>
     </row>
@@ -21965,7 +21975,7 @@
       <c r="A59" s="1" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>561</v>
       </c>
     </row>
@@ -21973,15 +21983,15 @@
       <c r="A60" s="1" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="36" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="n">
+      <c r="A61" s="34" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21989,7 +21999,7 @@
       <c r="A62" s="1" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21997,7 +22007,7 @@
       <c r="A63" s="1" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="36" t="s">
         <v>565</v>
       </c>
     </row>
@@ -22005,7 +22015,7 @@
       <c r="A64" s="1" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="36" t="s">
         <v>566</v>
       </c>
     </row>
@@ -22013,7 +22023,7 @@
       <c r="A65" s="1" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="36" t="s">
         <v>567</v>
       </c>
     </row>
@@ -22021,7 +22031,7 @@
       <c r="A66" s="1" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="36" t="s">
         <v>568</v>
       </c>
     </row>
@@ -22029,7 +22039,7 @@
       <c r="A67" s="1" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="36" t="s">
         <v>569</v>
       </c>
     </row>
@@ -22037,7 +22047,7 @@
       <c r="A68" s="1" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="36" t="s">
         <v>570</v>
       </c>
     </row>
@@ -22045,15 +22055,15 @@
       <c r="A69" s="1" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="36" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="n">
+      <c r="A70" s="34" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>572</v>
       </c>
     </row>
@@ -22061,7 +22071,7 @@
       <c r="A71" s="1" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="36" t="s">
         <v>573</v>
       </c>
     </row>
@@ -22069,7 +22079,7 @@
       <c r="A72" s="1" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="36" t="s">
         <v>574</v>
       </c>
     </row>
@@ -22077,7 +22087,7 @@
       <c r="A73" s="1" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="36" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22085,15 +22095,15 @@
       <c r="A74" s="1" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="36" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="34" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="35" t="s">
         <v>577</v>
       </c>
     </row>
@@ -22101,7 +22111,7 @@
       <c r="A76" s="1" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="36" t="s">
         <v>578</v>
       </c>
     </row>
@@ -22109,7 +22119,7 @@
       <c r="A77" s="1" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="36" t="s">
         <v>579</v>
       </c>
     </row>
@@ -22117,7 +22127,7 @@
       <c r="A78" s="1" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="36" t="s">
         <v>580</v>
       </c>
     </row>
@@ -22125,7 +22135,7 @@
       <c r="A79" s="1" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="36" t="s">
         <v>581</v>
       </c>
     </row>
@@ -22133,7 +22143,7 @@
       <c r="A80" s="1" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="36" t="s">
         <v>582</v>
       </c>
     </row>
@@ -22141,7 +22151,7 @@
       <c r="A81" s="1" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="36" t="s">
         <v>583</v>
       </c>
     </row>
@@ -22149,7 +22159,7 @@
       <c r="A82" s="1" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="36" t="s">
         <v>584</v>
       </c>
     </row>
@@ -22157,7 +22167,7 @@
       <c r="A83" s="1" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="36" t="s">
         <v>585</v>
       </c>
     </row>
@@ -22165,7 +22175,7 @@
       <c r="A84" s="1" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="36" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22173,7 +22183,7 @@
       <c r="A85" s="1" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="36" t="s">
         <v>587</v>
       </c>
     </row>
@@ -22181,7 +22191,7 @@
       <c r="A86" s="1" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="36" t="s">
         <v>588</v>
       </c>
     </row>
@@ -22189,7 +22199,7 @@
       <c r="A87" s="1" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="36" t="s">
         <v>589</v>
       </c>
     </row>
@@ -22197,7 +22207,7 @@
       <c r="A88" s="1" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="36" t="s">
         <v>590</v>
       </c>
     </row>
@@ -22205,7 +22215,7 @@
       <c r="A89" s="1" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="36" t="s">
         <v>591</v>
       </c>
     </row>
@@ -22213,15 +22223,15 @@
       <c r="A90" s="1" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="36" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="33" t="n">
+      <c r="A91" s="34" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="35" t="s">
         <v>592</v>
       </c>
     </row>
@@ -22229,7 +22239,7 @@
       <c r="A92" s="1" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="36" t="s">
         <v>593</v>
       </c>
     </row>
@@ -22237,7 +22247,7 @@
       <c r="A93" s="1" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="36" t="s">
         <v>594</v>
       </c>
     </row>
@@ -22245,7 +22255,7 @@
       <c r="A94" s="1" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="36" t="s">
         <v>595</v>
       </c>
     </row>
@@ -22253,7 +22263,7 @@
       <c r="A95" s="1" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="36" t="s">
         <v>596</v>
       </c>
     </row>
@@ -22261,7 +22271,7 @@
       <c r="A96" s="1" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="36" t="s">
         <v>597</v>
       </c>
     </row>
@@ -22269,7 +22279,7 @@
       <c r="A97" s="1" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="36" t="s">
         <v>598</v>
       </c>
     </row>
@@ -22277,7 +22287,7 @@
       <c r="A98" s="1" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="36" t="s">
         <v>599</v>
       </c>
     </row>
@@ -22285,7 +22295,7 @@
       <c r="A99" s="1" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="36" t="s">
         <v>600</v>
       </c>
     </row>
@@ -22293,7 +22303,7 @@
       <c r="A100" s="1" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="36" t="s">
         <v>601</v>
       </c>
     </row>
@@ -22301,7 +22311,7 @@
       <c r="A101" s="1" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="36" t="s">
         <v>602</v>
       </c>
     </row>
@@ -22309,7 +22319,7 @@
       <c r="A102" s="1" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="36" t="s">
         <v>603</v>
       </c>
     </row>
@@ -22317,7 +22327,7 @@
       <c r="A103" s="1" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="36" t="s">
         <v>604</v>
       </c>
     </row>
@@ -22325,7 +22335,7 @@
       <c r="A104" s="1" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="36" t="s">
         <v>605</v>
       </c>
     </row>
@@ -22333,7 +22343,7 @@
       <c r="A105" s="1" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="36" t="s">
         <v>606</v>
       </c>
     </row>
@@ -22341,7 +22351,7 @@
       <c r="A106" s="1" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="36" t="s">
         <v>607</v>
       </c>
     </row>
@@ -22349,7 +22359,7 @@
       <c r="A107" s="1" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="36" t="s">
         <v>608</v>
       </c>
     </row>
@@ -22357,7 +22367,7 @@
       <c r="A108" s="1" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="36" t="s">
         <v>609</v>
       </c>
     </row>
@@ -22365,7 +22375,7 @@
       <c r="A109" s="1" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="36" t="s">
         <v>610</v>
       </c>
     </row>
@@ -22373,7 +22383,7 @@
       <c r="A110" s="1" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="36" t="s">
         <v>611</v>
       </c>
     </row>
@@ -22381,7 +22391,7 @@
       <c r="A111" s="1" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="36" t="s">
         <v>612</v>
       </c>
     </row>
@@ -22389,7 +22399,7 @@
       <c r="A112" s="1" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="36" t="s">
         <v>613</v>
       </c>
     </row>
@@ -22397,7 +22407,7 @@
       <c r="A113" s="1" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="36" t="s">
         <v>614</v>
       </c>
     </row>
@@ -22405,7 +22415,7 @@
       <c r="A114" s="1" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="36" t="s">
         <v>615</v>
       </c>
     </row>
@@ -22413,7 +22423,7 @@
       <c r="A115" s="1" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="36" t="s">
         <v>616</v>
       </c>
     </row>
@@ -22421,7 +22431,7 @@
       <c r="A116" s="1" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="36" t="s">
         <v>617</v>
       </c>
     </row>
@@ -22429,7 +22439,7 @@
       <c r="A117" s="1" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="36" t="s">
         <v>618</v>
       </c>
     </row>
@@ -22437,7 +22447,7 @@
       <c r="A118" s="1" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="36" t="s">
         <v>619</v>
       </c>
     </row>
@@ -22445,7 +22455,7 @@
       <c r="A119" s="1" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="36" t="s">
         <v>620</v>
       </c>
     </row>
@@ -22453,7 +22463,7 @@
       <c r="A120" s="1" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="36" t="s">
         <v>621</v>
       </c>
     </row>
@@ -22461,7 +22471,7 @@
       <c r="A121" s="1" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="36" t="s">
         <v>622</v>
       </c>
     </row>
@@ -22469,7 +22479,7 @@
       <c r="A122" s="1" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="36" t="s">
         <v>623</v>
       </c>
     </row>
@@ -22477,7 +22487,7 @@
       <c r="A123" s="1" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="36" t="s">
         <v>624</v>
       </c>
     </row>
@@ -22485,7 +22495,7 @@
       <c r="A124" s="1" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="36" t="s">
         <v>625</v>
       </c>
     </row>
@@ -22493,7 +22503,7 @@
       <c r="A125" s="1" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="36" t="s">
         <v>626</v>
       </c>
     </row>
@@ -22501,7 +22511,7 @@
       <c r="A126" s="1" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="36" t="s">
         <v>627</v>
       </c>
     </row>
@@ -22509,7 +22519,7 @@
       <c r="A127" s="1" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="36" t="s">
         <v>628</v>
       </c>
     </row>
@@ -22517,7 +22527,7 @@
       <c r="A128" s="1" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="36" t="s">
         <v>629</v>
       </c>
     </row>
@@ -22525,7 +22535,7 @@
       <c r="A129" s="1" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="36" t="s">
         <v>630</v>
       </c>
     </row>
@@ -22533,7 +22543,7 @@
       <c r="A130" s="1" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="36" t="s">
         <v>631</v>
       </c>
     </row>
@@ -22541,15 +22551,15 @@
       <c r="A131" s="1" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="36" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="33" t="n">
+      <c r="A132" s="34" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="35" t="s">
         <v>633</v>
       </c>
     </row>
@@ -22557,7 +22567,7 @@
       <c r="A133" s="1" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="36" t="s">
         <v>634</v>
       </c>
     </row>
@@ -22565,7 +22575,7 @@
       <c r="A134" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="36" t="s">
         <v>635</v>
       </c>
     </row>
@@ -22573,7 +22583,7 @@
       <c r="A135" s="1" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="36" t="s">
         <v>636</v>
       </c>
     </row>
@@ -22581,7 +22591,7 @@
       <c r="A136" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="36" t="s">
         <v>637</v>
       </c>
     </row>
@@ -22589,15 +22599,15 @@
       <c r="A137" s="1" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="36" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="33" t="n">
+      <c r="A138" s="34" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="35" t="s">
         <v>639</v>
       </c>
     </row>
@@ -22605,7 +22615,7 @@
       <c r="A139" s="1" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="36" t="s">
         <v>640</v>
       </c>
     </row>
@@ -22613,7 +22623,7 @@
       <c r="A140" s="1" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="36" t="s">
         <v>641</v>
       </c>
     </row>
@@ -22621,7 +22631,7 @@
       <c r="A141" s="1" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="36" t="s">
         <v>642</v>
       </c>
     </row>
@@ -22629,7 +22639,7 @@
       <c r="A142" s="1" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="36" t="s">
         <v>643</v>
       </c>
     </row>
@@ -22637,7 +22647,7 @@
       <c r="A143" s="1" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="36" t="s">
         <v>644</v>
       </c>
     </row>
@@ -22645,7 +22655,7 @@
       <c r="A144" s="1" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="36" t="s">
         <v>645</v>
       </c>
     </row>
@@ -22653,7 +22663,7 @@
       <c r="A145" s="1" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="36" t="s">
         <v>646</v>
       </c>
     </row>
